--- a/controllers/CL_TEST_8_action 5/data/NO_CL_3_0/NO_CL_3_0_TEST_GAP_8.6/NO_CL_3_0_TEST_GAP_8.6_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/NO_CL_3_0/NO_CL_3_0_TEST_GAP_8.6/NO_CL_3_0_TEST_GAP_8.6_Test_Result.xlsx
@@ -448,13 +448,13 @@
         <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.8125</v>
+        <v>0.925</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1675</v>
+        <v>0.075</v>
       </c>
     </row>
   </sheetData>
